--- a/data/trans_orig/P50_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Clase-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7104</v>
+        <v>6263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003258340368407288</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01835691913815505</v>
+        <v>0.0161857170344856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6314</v>
+        <v>7654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00191401513152318</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009583988447996458</v>
+        <v>0.01161887973182197</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4690</v>
+        <v>4710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002421412283857348</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01211978273575821</v>
+        <v>0.01217217437566946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6900</v>
+        <v>7220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007155890531325689</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02538650710938121</v>
+        <v>0.02656443922343335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -847,19 +847,19 @@
         <v>2882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7741</v>
+        <v>8232</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004374762109818489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001407431583984117</v>
+        <v>0.001424538861350142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01175088722962665</v>
+        <v>0.01249680391872414</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>2997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8252</v>
+        <v>8124</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007744482721376903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002451532920467369</v>
+        <v>0.00245543991693993</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02132552009427061</v>
+        <v>0.02099356076393784</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5797</v>
+        <v>5837</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004271049856539849</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02133037673448232</v>
+        <v>0.02147463536350343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -918,19 +918,19 @@
         <v>4158</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>996</v>
+        <v>1072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11099</v>
+        <v>10477</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006311414677259221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001511527015867393</v>
+        <v>0.001627708637877777</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0168488626939254</v>
+        <v>0.01590421962003184</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>381775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>374770</v>
+        <v>374264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>385030</v>
+        <v>385028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9865757646263584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9684722158432707</v>
+        <v>0.9671643287060719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9949873951510368</v>
+        <v>0.994982788978278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>241</v>
@@ -968,19 +968,19 @@
         <v>268685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>262584</v>
+        <v>263776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>270848</v>
+        <v>270866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9885730596121345</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9661255173260754</v>
+        <v>0.9705115359498639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9965311314556007</v>
+        <v>0.9965979708769009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>600</v>
@@ -989,19 +989,19 @@
         <v>650460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>642379</v>
+        <v>642975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>654859</v>
+        <v>654952</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9873998080813992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9751320896739032</v>
+        <v>0.9760363582955656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9940768801314515</v>
+        <v>0.9942175492640425</v>
       </c>
     </row>
     <row r="8">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5198</v>
+        <v>4961</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002770150487380892</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01397518703097501</v>
+        <v>0.01333653012158848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5139</v>
+        <v>5959</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001643464037190355</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008196916991283245</v>
+        <v>0.00950506623547258</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1250,7 @@
         <v>370922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>366754</v>
+        <v>366991</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>371952</v>
@@ -1259,7 +1259,7 @@
         <v>0.9972298495126191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9860248129690249</v>
+        <v>0.9866634698784109</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>625917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>621808</v>
+        <v>620988</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>626947</v>
@@ -1293,7 +1293,7 @@
         <v>0.9983565359628096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9918030830087168</v>
+        <v>0.9904949337645262</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3984</v>
+        <v>4396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001373280481444576</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00752835495947333</v>
+        <v>0.008305213775870778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5778</v>
+        <v>4669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006152048794332658</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03930969063903292</v>
+        <v>0.0317633001813391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5424</v>
+        <v>5744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002411949619142437</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008021284001096609</v>
+        <v>0.008494043938980534</v>
       </c>
     </row>
     <row r="17">
@@ -1553,7 +1553,7 @@
         <v>528528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>525271</v>
+        <v>524859</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>529255</v>
@@ -1562,7 +1562,7 @@
         <v>0.9986267195185554</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9924716450405272</v>
+        <v>0.9916947862241293</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>146076</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141202</v>
+        <v>142311</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>146980</v>
@@ -1583,7 +1583,7 @@
         <v>0.9938479512056674</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.960690309360967</v>
+        <v>0.9682366998186609</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>674605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>670812</v>
+        <v>670492</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>676236</v>
@@ -1604,7 +1604,7 @@
         <v>0.9975880503808575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9919787159989035</v>
+        <v>0.9915059560610194</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5255</v>
+        <v>6205</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001171607807908868</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005915309478951026</v>
+        <v>0.006984505854574428</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5726</v>
+        <v>5825</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0007772000804516471</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004275457215854534</v>
+        <v>0.00434926248593532</v>
       </c>
     </row>
     <row r="20">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3683</v>
+        <v>4127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0008180775768771228</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004145917657973265</v>
+        <v>0.004645019389617603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3648</v>
+        <v>3658</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0005426815648313299</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002723780138605468</v>
+        <v>0.002731273069425796</v>
       </c>
     </row>
     <row r="21">
@@ -1825,19 +1825,19 @@
         <v>3178</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7784</v>
+        <v>8593</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003577600537698993</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001096963253085066</v>
+        <v>0.001099189785353007</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.008761825034422523</v>
+        <v>0.009671714574110103</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1859,19 +1859,19 @@
         <v>3178</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8962</v>
+        <v>8520</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002373244192257715</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0007341006861281398</v>
+        <v>0.0007344337548134716</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.00669155931818647</v>
+        <v>0.006361484290701836</v>
       </c>
     </row>
     <row r="22">
@@ -1888,19 +1888,19 @@
         <v>883498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>877533</v>
+        <v>877762</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>886704</v>
+        <v>886697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.994432714077515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9877187863605552</v>
+        <v>0.9879771656707685</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9980418796250957</v>
+        <v>0.9980334461550781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>422</v>
@@ -1922,19 +1922,19 @@
         <v>1334358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1328920</v>
+        <v>1328328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1337560</v>
+        <v>1337338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9963068741624593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9922463857785869</v>
+        <v>0.9918050701338653</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9986975080122221</v>
+        <v>0.9985324041692104</v>
       </c>
     </row>
     <row r="23">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5441</v>
+        <v>4815</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002746758557188496</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01568206461739306</v>
+        <v>0.0138760752535529</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5308</v>
+        <v>5326</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003920136072496451</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01942869748736604</v>
+        <v>0.01949513183514078</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7316</v>
+        <v>7022</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003263653521467688</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01179661198595103</v>
+        <v>0.01132326788978759</v>
       </c>
     </row>
     <row r="26">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7068</v>
+        <v>8150</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00669154742950021</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02037113816922734</v>
+        <v>0.02348939999956698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2165,19 +2165,19 @@
         <v>3082</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8356</v>
+        <v>8176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.011281206299113</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003622440894140497</v>
+        <v>0.003649348488061413</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03058525019554002</v>
+        <v>0.02992742794675965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2186,19 +2186,19 @@
         <v>5404</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2079</v>
+        <v>2067</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11895</v>
+        <v>11901</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00871337887463366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003352470807988619</v>
+        <v>0.003333650972931975</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01917938091183247</v>
+        <v>0.01918894298910141</v>
       </c>
     </row>
     <row r="27">
@@ -2215,19 +2215,19 @@
         <v>343704</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>337537</v>
+        <v>337909</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>346030</v>
+        <v>346022</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9905616940133113</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9727868206083384</v>
+        <v>0.9738593957504627</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9972646534920221</v>
+        <v>0.9972411646539397</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>249</v>
@@ -2236,19 +2236,19 @@
         <v>269048</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>263545</v>
+        <v>263972</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>272156</v>
+        <v>272157</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9847986576283906</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.96465571480435</v>
+        <v>0.9662206819803953</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9961747438911095</v>
+        <v>0.9961794466103736</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>576</v>
@@ -2257,19 +2257,19 @@
         <v>612753</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>605452</v>
+        <v>605648</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>616964</v>
+        <v>617114</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9880229676038986</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9762498383065839</v>
+        <v>0.9765658766894239</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9948135460873393</v>
+        <v>0.9950540478320424</v>
       </c>
     </row>
     <row r="28">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4582</v>
+        <v>4274</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004076780844284557</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01865060848954766</v>
+        <v>0.01739672363146104</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5914</v>
+        <v>4068</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002930721785654144</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01730386436808854</v>
+        <v>0.01190146531001282</v>
       </c>
     </row>
     <row r="31">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5401</v>
+        <v>6546</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004403837418493696</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02198012890474101</v>
+        <v>0.02664192292052182</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6455</v>
+        <v>5498</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003165836662756238</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01888508025818951</v>
+        <v>0.01608714846655619</v>
       </c>
     </row>
     <row r="32">
@@ -2547,7 +2547,7 @@
         <v>243617</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>239275</v>
+        <v>239259</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>245701</v>
@@ -2556,7 +2556,7 @@
         <v>0.9915193817372218</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9738455296556656</v>
+        <v>0.9737821567560987</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>339699</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>334303</v>
+        <v>334539</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>341783</v>
@@ -2577,7 +2577,7 @@
         <v>0.9939034415515896</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9781138177045956</v>
+        <v>0.9788043333389149</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7828</v>
+        <v>7771</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.000878650995910873</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.002988069815494118</v>
+        <v>0.002966340866644642</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8000</v>
+        <v>7926</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0005399183665052658</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001876625462104346</v>
+        <v>0.001859121829946667</v>
       </c>
     </row>
     <row r="35">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7123</v>
+        <v>7167</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0009989370410885075</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.002719056456462035</v>
+        <v>0.002735794904887865</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2756,19 +2756,19 @@
         <v>4018</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1004</v>
+        <v>1062</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9201</v>
+        <v>10001</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002444474893906415</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0006109532433983791</v>
+        <v>0.0006458744413110605</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.005598215639876545</v>
+        <v>0.006085186551995803</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2777,19 +2777,19 @@
         <v>6634</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2821</v>
+        <v>2955</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12762</v>
+        <v>13181</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001556212728556133</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0006616971868196012</v>
+        <v>0.0006930337547920088</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.002993416810007541</v>
+        <v>0.003091907991642088</v>
       </c>
     </row>
     <row r="36">
@@ -2806,19 +2806,19 @@
         <v>10254</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4917</v>
+        <v>5193</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18246</v>
+        <v>18448</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003914362664037898</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001877090347829187</v>
+        <v>0.001982126212929175</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.006965120478304995</v>
+        <v>0.007042140719261437</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2827,19 +2827,19 @@
         <v>6229</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2936</v>
+        <v>2487</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13115</v>
+        <v>13138</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003790095727282166</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001786649340393757</v>
+        <v>0.001512938063510288</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007979500190097803</v>
+        <v>0.007993690027413958</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -2848,19 +2848,19 @@
         <v>16484</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9642</v>
+        <v>9790</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25891</v>
+        <v>26722</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003866455967942013</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002261678469029839</v>
+        <v>0.002296398648484993</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.006073074907910214</v>
+        <v>0.006268141010850777</v>
       </c>
     </row>
     <row r="37">
@@ -2877,19 +2877,19 @@
         <v>2604509</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2595034</v>
+        <v>2595016</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2611180</v>
+        <v>2610801</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9942080492989627</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9905914036288962</v>
+        <v>0.9905842903147416</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9967545699863257</v>
+        <v>0.9966097773620991</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1508</v>
@@ -2898,19 +2898,19 @@
         <v>1633282</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1624762</v>
+        <v>1625457</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1638184</v>
+        <v>1638374</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9937654293788114</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9885813360172268</v>
+        <v>0.9890038728281738</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9967480458279436</v>
+        <v>0.9968636594468505</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3956</v>
@@ -2919,19 +2919,19 @@
         <v>4237791</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4227046</v>
+        <v>4226344</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4246432</v>
+        <v>4246248</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9940374129369965</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9915170449159266</v>
+        <v>0.9913524009762718</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9960641759507292</v>
+        <v>0.9960209908433802</v>
       </c>
     </row>
     <row r="38">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5466</v>
+        <v>4878</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003213774907277167</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0179919085144853</v>
+        <v>0.01605745300953465</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4907</v>
+        <v>4892</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00153589375859786</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007719370105867786</v>
+        <v>0.007694630653204201</v>
       </c>
     </row>
     <row r="10">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4648</v>
+        <v>5053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003058517071226513</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01529871317792533</v>
+        <v>0.01663115628807865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4640</v>
+        <v>4671</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001461694554159599</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007299595005510202</v>
+        <v>0.007347108727343262</v>
       </c>
     </row>
     <row r="12">
@@ -3714,7 +3714,7 @@
         <v>301903</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298007</v>
+        <v>297334</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>303809</v>
@@ -3723,7 +3723,7 @@
         <v>0.9937277080214963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.98090127034649</v>
+        <v>0.9786882275495608</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>633798</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>629046</v>
+        <v>629758</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>635704</v>
@@ -3744,7 +3744,7 @@
         <v>0.9970024116872426</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9895258760906837</v>
+        <v>0.9906468592056958</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4475</v>
+        <v>5042</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01101850714302498</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04902046990008679</v>
+        <v>0.05523274924763046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5644</v>
+        <v>6529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001928869283247121</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01082396017801734</v>
+        <v>0.01252229475036766</v>
       </c>
     </row>
     <row r="15">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6082</v>
+        <v>7124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002899349956278626</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01413968902822913</v>
+        <v>0.01656238564365891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5908</v>
+        <v>5032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01197122755729836</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06472857767059549</v>
+        <v>0.05512706788323391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8281</v>
+        <v>8823</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004487447673950077</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0158816970371685</v>
+        <v>0.01692094856521147</v>
       </c>
     </row>
     <row r="17">
@@ -4020,7 +4020,7 @@
         <v>428895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>424060</v>
+        <v>423018</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>430142</v>
@@ -4029,7 +4029,7 @@
         <v>0.9971006500437214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9858603109717697</v>
+        <v>0.9834376143563416</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>89181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84508</v>
+        <v>84939</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>91279</v>
@@ -4050,7 +4050,7 @@
         <v>0.9770102652996766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9258169951217736</v>
+        <v>0.9305477119445072</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4062,19 +4062,19 @@
         <v>518075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>512235</v>
+        <v>510834</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>520420</v>
+        <v>520415</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9935836830428028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9823819815727063</v>
+        <v>0.9796966020641981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980801397514459</v>
+        <v>0.9980708427193189</v>
       </c>
     </row>
     <row r="18">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4447</v>
+        <v>5305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001810816220807659</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009047100159987335</v>
+        <v>0.01079217893009584</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4447</v>
+        <v>4454</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006400886041667829</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003197994336803636</v>
+        <v>0.003203010823159349</v>
       </c>
     </row>
     <row r="20">
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5435</v>
+        <v>6550</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001211362962375829</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.006045471408856065</v>
+        <v>0.007285673772769155</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5448</v>
+        <v>4372</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.000783169521861667</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.003917867510455601</v>
+        <v>0.003144259788445604</v>
       </c>
     </row>
     <row r="22">
@@ -4339,7 +4339,7 @@
         <v>897966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>893620</v>
+        <v>892505</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>899055</v>
@@ -4348,7 +4348,7 @@
         <v>0.9987886370376242</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.993954528591144</v>
+        <v>0.9927143262272285</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>490663</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>487106</v>
+        <v>486248</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>491553</v>
@@ -4369,7 +4369,7 @@
         <v>0.9981891837791923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9909528998400127</v>
+        <v>0.9892078210699041</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>1388629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1384319</v>
+        <v>1384478</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>1390608</v>
@@ -4390,7 +4390,7 @@
         <v>0.9985767418739715</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9954774375251323</v>
+        <v>0.9955915097443834</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6293</v>
+        <v>5397</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003834910616276499</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02224683839504724</v>
+        <v>0.01907810578309181</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6515</v>
+        <v>4525</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001591909957911371</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00956088859118568</v>
+        <v>0.006639860135780112</v>
       </c>
     </row>
     <row r="25">
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5770</v>
+        <v>5153</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002560625999111128</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01447639785016321</v>
+        <v>0.01292982093287545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5122</v>
+        <v>4529</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001497684399072057</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.007517255482280479</v>
+        <v>0.006646583593744468</v>
       </c>
     </row>
     <row r="26">
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6001</v>
+        <v>5698</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004707341136784914</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01505738801700448</v>
+        <v>0.01429708742784357</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6536</v>
+        <v>6511</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002753276497278479</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009592340864073923</v>
+        <v>0.009555157101909446</v>
       </c>
     </row>
     <row r="27">
@@ -4674,19 +4674,19 @@
         <v>395661</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>390648</v>
+        <v>390773</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>397629</v>
+        <v>397625</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9927320328641039</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9801532742959355</v>
+        <v>0.9804665166347564</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9976700817215844</v>
+        <v>0.9976598877493633</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>276</v>
@@ -4695,7 +4695,7 @@
         <v>281781</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>276573</v>
+        <v>277469</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>282866</v>
@@ -4704,7 +4704,7 @@
         <v>0.9961650893837235</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9777531616049531</v>
+        <v>0.9809218942169082</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -4716,19 +4716,19 @@
         <v>677443</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>671344</v>
+        <v>672253</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>680347</v>
+        <v>680409</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9941571291457381</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9852081201962604</v>
+        <v>0.9865415116043355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.998419292368348</v>
+        <v>0.9985106473252463</v>
       </c>
     </row>
     <row r="28">
@@ -5096,19 +5096,19 @@
         <v>3957</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10996</v>
+        <v>9103</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002300697211344136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0005868552453222145</v>
+        <v>0.0005791192190607257</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.006393116191563508</v>
+        <v>0.005292585734303881</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -5117,19 +5117,19 @@
         <v>3957</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10129</v>
+        <v>10105</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.000921888021486948</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.000233502217180287</v>
+        <v>0.0002346520671879902</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.002359850333593289</v>
+        <v>0.002354196795560877</v>
       </c>
     </row>
     <row r="35">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5133</v>
+        <v>5964</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0003967385600732827</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.001995488749103927</v>
+        <v>0.002318680406917131</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6697</v>
+        <v>5106</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0002377656520390881</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.001560212651679022</v>
+        <v>0.00118957375867448</v>
       </c>
     </row>
     <row r="36">
@@ -5209,19 +5209,19 @@
         <v>4212</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10731</v>
+        <v>10175</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001637542872522624</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00042354609087194</v>
+        <v>0.0004262965374580489</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004171746417333969</v>
+        <v>0.003955558222763841</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6899</v>
+        <v>6372</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001175593563254548</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.004011004383104907</v>
+        <v>0.003704715933133636</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -5251,19 +5251,19 @@
         <v>6234</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12796</v>
+        <v>12812</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001452440055581491</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0005080614137720102</v>
+        <v>0.0005087152698637489</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002981159930759635</v>
+        <v>0.00298494949336281</v>
       </c>
     </row>
     <row r="37">
@@ -5280,19 +5280,19 @@
         <v>2567135</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2560597</v>
+        <v>2559803</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2570418</v>
+        <v>2570348</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9979657185674041</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9954240672093455</v>
+        <v>0.995115587933227</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9992420469935063</v>
+        <v>0.9992145835191352</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1671</v>
@@ -5301,19 +5301,19 @@
         <v>1713936</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1706888</v>
+        <v>1707774</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1717817</v>
+        <v>1717830</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9965237092254013</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.992425765744634</v>
+        <v>0.9929411483333594</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9987800702099928</v>
+        <v>0.9987880022484686</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4091</v>
@@ -5322,19 +5322,19 @@
         <v>4281071</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4273245</v>
+        <v>4273175</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4286393</v>
+        <v>4286395</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9973879062708925</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9955646553589379</v>
+        <v>0.9955481885255892</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.998627803760279</v>
+        <v>0.9986282686193146</v>
       </c>
     </row>
     <row r="38">
